--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H2">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>29.46287265593036</v>
+        <v>4.151212858621111</v>
       </c>
       <c r="R2">
-        <v>29.46287265593036</v>
+        <v>37.36091572759</v>
       </c>
       <c r="S2">
-        <v>0.4308148860356953</v>
+        <v>0.03565348124103256</v>
       </c>
       <c r="T2">
-        <v>0.4308148860356953</v>
+        <v>0.03565348124103258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.6367828298141</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H3">
-        <v>34.6367828298141</v>
+        <v>120.988205</v>
       </c>
       <c r="I3">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J3">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>31.53397512874696</v>
+        <v>9.898448345066665</v>
       </c>
       <c r="R3">
-        <v>31.53397512874696</v>
+        <v>89.08603510559999</v>
       </c>
       <c r="S3">
-        <v>0.4610991623252014</v>
+        <v>0.08501470640158647</v>
       </c>
       <c r="T3">
-        <v>0.4610991623252014</v>
+        <v>0.08501470640158648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,424 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.11918550230858</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H4">
-        <v>8.11918550230858</v>
+        <v>120.988205</v>
       </c>
       <c r="I4">
-        <v>0.1080859516391032</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J4">
-        <v>0.1080859516391032</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N4">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q4">
-        <v>7.391858388045788</v>
+        <v>40.74065401859556</v>
       </c>
       <c r="R4">
-        <v>7.391858388045788</v>
+        <v>366.66588616736</v>
       </c>
       <c r="S4">
-        <v>0.1080859516391032</v>
+        <v>0.3499088563437048</v>
       </c>
       <c r="T4">
-        <v>0.1080859516391032</v>
+        <v>0.3499088563437049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>35.65443533333333</v>
+      </c>
+      <c r="H5">
+        <v>106.963306</v>
+      </c>
+      <c r="I5">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="J5">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.308798</v>
+      </c>
+      <c r="O5">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P5">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q5">
+        <v>3.670006107354222</v>
+      </c>
+      <c r="R5">
+        <v>33.030054966188</v>
+      </c>
+      <c r="S5">
+        <v>0.03152054552714313</v>
+      </c>
+      <c r="T5">
+        <v>0.03152054552714314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>35.65443533333333</v>
+      </c>
+      <c r="H6">
+        <v>106.963306</v>
+      </c>
+      <c r="I6">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="J6">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.24544</v>
+      </c>
+      <c r="N6">
+        <v>0.73632</v>
+      </c>
+      <c r="O6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q6">
+        <v>8.751024608213333</v>
+      </c>
+      <c r="R6">
+        <v>78.75922147391999</v>
+      </c>
+      <c r="S6">
+        <v>0.07515983938544302</v>
+      </c>
+      <c r="T6">
+        <v>0.07515983938544302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>35.65443533333333</v>
+      </c>
+      <c r="H7">
+        <v>106.963306</v>
+      </c>
+      <c r="I7">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="J7">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.030592</v>
+      </c>
+      <c r="O7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q7">
+        <v>36.01801549523911</v>
+      </c>
+      <c r="R7">
+        <v>324.162139457152</v>
+      </c>
+      <c r="S7">
+        <v>0.3093475770898638</v>
+      </c>
+      <c r="T7">
+        <v>0.3093475770898638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H8">
+        <v>29.154539</v>
+      </c>
+      <c r="I8">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J8">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>1.000318148235778</v>
+      </c>
+      <c r="R8">
+        <v>9.002863334122001</v>
+      </c>
+      <c r="S8">
+        <v>0.0085914226872566</v>
+      </c>
+      <c r="T8">
+        <v>0.008591422687256602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H9">
+        <v>29.154539</v>
+      </c>
+      <c r="I9">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J9">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>2.385230017386666</v>
+      </c>
+      <c r="R9">
+        <v>21.46707015648</v>
+      </c>
+      <c r="S9">
+        <v>0.02048600170040214</v>
+      </c>
+      <c r="T9">
+        <v>0.02048600170040214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H10">
+        <v>29.154539</v>
+      </c>
+      <c r="I10">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J10">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>9.817279184120888</v>
+      </c>
+      <c r="R10">
+        <v>88.355512657088</v>
+      </c>
+      <c r="S10">
+        <v>0.08431756962356736</v>
+      </c>
+      <c r="T10">
+        <v>0.08431756962356737</v>
       </c>
     </row>
   </sheetData>
